--- a/test.xlsx
+++ b/test.xlsx
@@ -7473,13 +7473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
+  <sheetPr filterMode="true">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G15" activeCellId="0" sqref="G15"/>
+      <selection pane="topLeft" activeCell="H16" activeCellId="0" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -22200,7 +22200,13 @@
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <autoFilter ref="A1:E1063"/>
+  <autoFilter ref="A1:E1063">
+    <filterColumn colId="0" hiddenButton="1"/>
+    <filterColumn colId="1" hiddenButton="1"/>
+    <filterColumn colId="2" hiddenButton="1"/>
+    <filterColumn colId="3" hiddenButton="1"/>
+    <filterColumn colId="4" hiddenButton="1"/>
+  </autoFilter>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
